--- a/data/export/project.xlsx
+++ b/data/export/project.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="851" count="851">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="987" count="987">
   <x:si>
     <x:t>Ref #</x:t>
   </x:si>
@@ -1529,7 +1529,7 @@
     <x:t>The Amazon Bioeconomy Fund: Unlocking private capital by valuing bioeconomy products and services with climate mitigation and adaptation results in the Amazon</x:t>
   </x:si>
   <x:si>
-    <x:t>Brazil, Colombia, Ecuador, Guyana, Peru, Suriname</x:t>
+    <x:t>Bolivia (Plurinational State of), Brazil, Colombia, Ecuador, Guyana, Peru, Suriname</x:t>
   </x:si>
   <x:si>
     <x:t>FP174</x:t>
@@ -1805,7 +1805,7 @@
     <x:t>AFC</x:t>
   </x:si>
   <x:si>
-    <x:t>Benin, Cameroon, Chad, Cote d'Ivoire, Democratic Republic of the Congo (the), Djibouti, Gabon, Gambia, Ghana, Guinea, Kenya, Mali, Mauritania, Namibia, Nigeria, Rwanda, Sierra Leone, Togo, Zambia</x:t>
+    <x:t>Angola, Benin, Burkina Faso, Cameroon, Chad, Cote d'Ivoire, Democratic Republic of the Congo (the), Djibouti, Gabon, Gambia, Ghana, Guinea, Kenya, Mali, Mauritania, Namibia, Nigeria, Rwanda, Senegal, Sierra Leone, Togo, Uganda, Zambia</x:t>
   </x:si>
   <x:si>
     <x:t>FP206</x:t>
@@ -1856,7 +1856,7 @@
     <x:t>Hardest-to-Reach</x:t>
   </x:si>
   <x:si>
-    <x:t>Benin, Burkina Faso, Burundi, Chad, Democratic Republic of the Congo (the), Guinea, Guinea-Bissau, Lesotho, Malawi, Mozambique, Niger (the), Sierra Leone, Somalia, Togo, Uganda, Zambia</x:t>
+    <x:t>Benin, Burkina Faso, Burundi, Chad, Democratic Republic of the Congo (the), Guinea, Guinea-Bissau, Lesotho, Liberia, Malawi, Mozambique, Niger (the), Sierra Leone, Somalia, Togo, Uganda, Zambia</x:t>
   </x:si>
   <x:si>
     <x:t>FP212</x:t>
@@ -2207,6 +2207,294 @@
     <x:t>Azerbaijan, Chile, Cote d'Ivoire, Egypt, Gabon, India, Indonesia, Morocco, Pakistan, Peru, Tunisia, Uzbekistan</x:t>
   </x:si>
   <x:si>
+    <x:t>FP255</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Transforming Livelihoods through Climate Resilient, Low Carbon, Sustainable Agricultural Value Chains in the Lake Region Economic Bloc, Kenya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B.41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP256</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Intensification of Agriculture and Agroforestry Techniques (IAAT) for Climate Resilient Food and Nutrition Security: Tombouctou, Gao, Mopti, Koulikoro and Segou regions of Mali</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RE-GAIN: Scaling solutions for food loss in Africa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AGRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burkina Faso, Ethiopia, Kenya, Malawi, Tanzania, Uganda, Zambia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP258</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Multi-country Project Advancing Early Warnings for All (EW4All)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Antigua and Barbuda, Cambodia, Chad, Ecuador, Ethiopia, Fiji, Somalia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP259</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adapting tuna-dependent Pacific Island communities and economies to climate change</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook Islands, Fiji, Kiribati, Marshall Islands, Micronesia (Federated States of), Nauru, Niue, Palau, Papua New Guinea, Samoa, Solomon Islands, Tonga, Tuvalu, Vanuatu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP260</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enhancing the resilience of Serbian forests to ensure energy security of the most vulnerable while contributing to their livelihoods and carbon sequestration (FOREST Invest)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Serbia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP261</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Improving Climate Resilience by Increasing Water Security in the Amazon Basin</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bolivia (Plurinational State of), Brazil, Colombia, Ecuador, Peru, Suriname</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP262</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Green Climate Finance Facility for Fostering Climate-Smart Agriculture in Senegal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LBA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP263</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mirova Sustainable Land Fund 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mirova</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Costa Rica, Cote d'Ivoire, Ghana, Malaysia, Morocco, Peru, Philippines (the)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP265</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Climate-resilient landscapes for sustainable livelihoods in northern Ghana</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B.42</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP266</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Strengthening the resilience of ecosystems and populations in four regional hubs in northern Mauritania</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mauritania</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP267</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scaling up ecosystem-based approaches to managing climate-intensified disaster risks in vulnerable regions of South Africa ("Eco-DRR")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SANBI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP268</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scaling-Up Resilience in Africa’s Great Green Wall (SURAGGWA)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Burkina Faso, Chad, Djibouti, Mali, Mauritania, Niger (the), Nigeria, Senegal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP269</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DaIMA – Dairy Interventions for Mitigation and Adaptation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP270</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Climate Adaptive Irrigation and Sustainable Agriculture for Resilience (CAISAR) in Cambodia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>India Green Finance Facility (IGFF)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP272</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Protecting livelihoods and assets at risk from Glacial Lake Outburst Floods (GLOFs) and climate change-induced flooding in glacial river basins of Nepal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP273</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Papua New Guinea REDD-plus RBP for results period 2014-2016</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Papua New Guinea</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Building the Climate Resilience of Children and Communities through the Education Sector (BRACE)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cambodia, South Sudan, Tonga</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scaling up the Deployment of Integrated Utility Services (IUS) to Support Energy Sector Transformation in the Caribbean (Phase 1) Programme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CDB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Barbados, Belize, Jamaica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP276</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GCF's investment into the Global Green Bond Initiative (GGBI) (previously known as Green and Resilience Debt Platform (GRDP)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EIB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Angola, Bangladesh, Brazil, Cameroon, Cote d'Ivoire, Egypt, Kenya, Namibia, Senegal, Uganda</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ATOME Villeta Green Fertilizer (AVGF) Project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP278</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adaptation of agricultural value chains to climate change in Madagascar – PrAda 2+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B.43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP279</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enhancing Climate Resilience in Flood-Prone Areas in Northwestern South Sudan (ECRF)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Sudan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP280</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Uganda REDD+ RBP for results period 2016 - 2017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP281</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Direct Financing for Communities and Businesses to Respond to Climate Change in the Cook Islands</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MFEM_COK</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cook Islands</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP282</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Lao People’s Democratic Republic: REDD+ Results-based Payments for results period [2015 – 2018] – “Governance, Forest Landscapes and Livelihoods – Southern Laos Project (GFLL-SL)”</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP283</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Glaciers to Farms (G2F) Regional Program: Advancing Climate Resilience &amp; Sustainable Development in Central and West Asia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Armenia, Azerbaijan, Georgia, Kazakhstan, Kyrgyzstan, Pakistan, Tajikistan, Turkmenistan, Uzbekistan</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP284</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Amazonia Viva Program</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP285</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GEF Latam Climate Solutions Fund IV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GEF LatAm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP286</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mandala Capital SSEA Food Programme ("MCSSEAFP")</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mandala</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indonesia, Philippines (the), Thailand</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP287</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Novastar Ventures Africa People and Planet Fund III</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Novastar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Egypt, Kenya, Nigeria, Rwanda, South Africa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FP288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jordan Aqaba-Amman Water Desalination and Conveyance Project (AAWDCP)</x:t>
+  </x:si>
+  <x:si>
     <x:t>SAP001</x:t>
   </x:si>
   <x:si>
@@ -2465,16 +2753,10 @@
     <x:t>Akamatutu’anga To Tatou Ora’anga Meitaki (ATOM): Building a healthy and resilient Cook Islands Community – one block at a time</x:t>
   </x:si>
   <x:si>
-    <x:t>MFEM_COK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cook Islands</x:t>
-  </x:si>
-  <x:si>
     <x:t>SAP035</x:t>
   </x:si>
   <x:si>
-    <x:t>Building the Adaptive Capacity of Sugarcane Farmers in Northern Belize (BaC-SuF).</x:t>
+    <x:t>Building the Adaptive Capacity of Sugarcane Farmers in Northern Belize (BaC-SuF)</x:t>
   </x:si>
   <x:si>
     <x:t>SAP036</x:t>
@@ -2568,6 +2850,132 @@
   </x:si>
   <x:si>
     <x:t>NRSP</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Strengthening the resilience of vulnerable communities within high climatic and disaster risk areas in Togo.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Togo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP049</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sustainable Communities for Climate Action in the Yucatán Peninsula (ACCIÓN)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP050</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Toward Risk-Aware and Climate-resilienT communities (TRACT) - Strengthening climate services and impact-based multi-hazard early warning in Maldives</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Increasing resilience to the health risks of climate change in the Federated States of Micronesia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FISH-ADAPT: Transforming climate resilience and sustainability in Saint Lucia's fisheries communities</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Saint Lucia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP054</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOURCE Pacific Drinking Water Project</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marshall Islands, Papua New Guinea, Tonga, Vanuatu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP055</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Strengthening the Health Resilience of Communities Vulnerable to Climate Change in Benin’s ABD (Adjohoun, Bonou and Dangbo) Zone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP056</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Climate Resilience in the Guiriko Region</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP057</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AY4SF - Adolescents and Youth for a Sustainable Future:  strengthening climate change adaptation and community resilience through green jobs in Zimbabwe</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Local Governments and Climate Change III (LGCC-3)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NCDD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP059</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Fueling Green Recovery in Armenia – advancing forest infrastructure and creating sustainable jobs for rural communities</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EPIU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP060</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Promoting Climate Resilient Livelihoods for Food Insecure People in Southern Iraq</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP061</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mitigation and adaptation to climate change under agroforestry systems in cocoa production in the Amazon and Atlantic Forest biomes</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IICA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP062</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dominica Community Resilience Enhancement Project (DOMCREP)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dominica</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scaling up of Caribbean Hydrometeorological and Multi-hazard Early Warning Services (CREWS) in Belize and Trinidad and Tobago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Belize, Trinidad and Tobago</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP064</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Building Eco-system for Accelerating Contribution to NDC through Climate Innovation Incubation for India ("BEACON  INDIA”)"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAP065</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Harnessing Insurance for Climate Resilience in Indian Agriculture</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3662,7 +4070,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="K21" s="0" t="n">
-        <x:v>15625000</x:v>
+        <x:v>17361111.11</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:11">
@@ -3837,7 +4245,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K26" s="0" t="n">
-        <x:v>18500000</x:v>
+        <x:v>15199555</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:11">
@@ -4187,7 +4595,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="K36" s="0" t="n">
-        <x:v>106979166.67</x:v>
+        <x:v>118865740.74</x:v>
       </x:c>
     </x:row>
     <x:row r="37" spans="1:11">
@@ -4222,7 +4630,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K37" s="0" t="n">
-        <x:v>20833333.33</x:v>
+        <x:v>23148148.15</x:v>
       </x:c>
     </x:row>
     <x:row r="38" spans="1:11">
@@ -4257,7 +4665,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K38" s="0" t="n">
-        <x:v>33302083.33</x:v>
+        <x:v>37002314.81</x:v>
       </x:c>
     </x:row>
     <x:row r="39" spans="1:11">
@@ -4712,7 +5120,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K51" s="0" t="n">
-        <x:v>36760515.63</x:v>
+        <x:v>40845017.36</x:v>
       </x:c>
     </x:row>
     <x:row r="52" spans="1:11">
@@ -5587,7 +5995,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="K76" s="0" t="n">
-        <x:v>90625000</x:v>
+        <x:v>100694444.44</x:v>
       </x:c>
     </x:row>
     <x:row r="77" spans="1:11">
@@ -5797,7 +6205,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K82" s="0" t="n">
-        <x:v>25312500</x:v>
+        <x:v>28125000</x:v>
       </x:c>
     </x:row>
     <x:row r="83" spans="1:11">
@@ -5867,7 +6275,7 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="K84" s="0" t="n">
-        <x:v>250000000</x:v>
+        <x:v>277777777.78</x:v>
       </x:c>
     </x:row>
     <x:row r="85" spans="1:11">
@@ -6112,7 +6520,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K91" s="0" t="n">
-        <x:v>27050637.5</x:v>
+        <x:v>30056263.89</x:v>
       </x:c>
     </x:row>
     <x:row r="92" spans="1:11">
@@ -6147,7 +6555,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K92" s="0" t="n">
-        <x:v>39958333.33</x:v>
+        <x:v>44398148.15</x:v>
       </x:c>
     </x:row>
     <x:row r="93" spans="1:11">
@@ -6182,7 +6590,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="K93" s="0" t="n">
-        <x:v>63541666.67</x:v>
+        <x:v>70601851.85</x:v>
       </x:c>
     </x:row>
     <x:row r="94" spans="1:11">
@@ -6602,7 +7010,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K105" s="0" t="n">
-        <x:v>15792287.5</x:v>
+        <x:v>17546986.11</x:v>
       </x:c>
     </x:row>
     <x:row r="106" spans="1:11">
@@ -6672,7 +7080,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="K107" s="0" t="n">
-        <x:v>24697689.58</x:v>
+        <x:v>27441877.31</x:v>
       </x:c>
     </x:row>
     <x:row r="108" spans="1:11">
@@ -6777,7 +7185,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="K110" s="0" t="n">
-        <x:v>31250000</x:v>
+        <x:v>34722222.22</x:v>
       </x:c>
     </x:row>
     <x:row r="111" spans="1:11">
@@ -7092,7 +7500,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K119" s="0" t="n">
-        <x:v>34157938.54</x:v>
+        <x:v>37953265.05</x:v>
       </x:c>
     </x:row>
     <x:row r="120" spans="1:11">
@@ -7302,7 +7710,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K125" s="0" t="n">
-        <x:v>78588725</x:v>
+        <x:v>87320805.56</x:v>
       </x:c>
     </x:row>
     <x:row r="126" spans="1:11">
@@ -8597,7 +9005,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K162" s="0" t="n">
-        <x:v>31394554.17</x:v>
+        <x:v>34882837.96</x:v>
       </x:c>
     </x:row>
     <x:row r="163" spans="1:11">
@@ -8842,7 +9250,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K169" s="0" t="n">
-        <x:v>108765821.88</x:v>
+        <x:v>120850913.19</x:v>
       </x:c>
     </x:row>
     <x:row r="170" spans="1:11">
@@ -9227,7 +9635,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K180" s="0" t="n">
-        <x:v>227291666.67</x:v>
+        <x:v>247546296.3</x:v>
       </x:c>
     </x:row>
     <x:row r="181" spans="1:11">
@@ -9367,7 +9775,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="K184" s="0" t="n">
-        <x:v>27958545.83</x:v>
+        <x:v>31065050.93</x:v>
       </x:c>
     </x:row>
     <x:row r="185" spans="1:11">
@@ -9437,7 +9845,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K186" s="0" t="n">
-        <x:v>34191087.5</x:v>
+        <x:v>37990097.22</x:v>
       </x:c>
     </x:row>
     <x:row r="187" spans="1:11">
@@ -9927,7 +10335,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K200" s="0" t="n">
-        <x:v>39764944.79</x:v>
+        <x:v>44183271.99</x:v>
       </x:c>
     </x:row>
     <x:row r="201" spans="1:11">
@@ -10102,7 +10510,7 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="K205" s="0" t="n">
-        <x:v>102790987.98</x:v>
+        <x:v>102790987.08</x:v>
       </x:c>
     </x:row>
     <x:row r="206" spans="1:11">
@@ -10347,7 +10755,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K212" s="0" t="n">
-        <x:v>42489583.33</x:v>
+        <x:v>47210648.15</x:v>
       </x:c>
     </x:row>
     <x:row r="213" spans="1:11">
@@ -10487,7 +10895,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="K216" s="0" t="n">
-        <x:v>34166666.67</x:v>
+        <x:v>37962962.96</x:v>
       </x:c>
     </x:row>
     <x:row r="217" spans="1:11">
@@ -10732,7 +11140,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K223" s="0" t="n">
-        <x:v>121861307.29</x:v>
+        <x:v>130927674.77</x:v>
       </x:c>
     </x:row>
     <x:row r="224" spans="1:11">
@@ -11082,7 +11490,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="K233" s="0" t="n">
-        <x:v>46232611.46</x:v>
+        <x:v>51369568.29</x:v>
       </x:c>
     </x:row>
     <x:row r="234" spans="1:11">
@@ -11117,7 +11525,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="K234" s="0" t="n">
-        <x:v>61963282.29</x:v>
+        <x:v>68848091.44</x:v>
       </x:c>
     </x:row>
     <x:row r="235" spans="1:11">
@@ -11335,34 +11743,34 @@
         <x:v>730</x:v>
       </x:c>
       <x:c r="B241" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C241" s="0" t="s">
         <x:v>731</x:v>
       </x:c>
-      <x:c r="C241" s="0" t="s">
+      <x:c r="D241" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E241" s="0" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="F241" s="0" t="s">
         <x:v>732</x:v>
       </x:c>
-      <x:c r="D241" s="0" t="s">
-        <x:v>104</x:v>
-      </x:c>
-      <x:c r="E241" s="0" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="F241" s="0" t="s">
-        <x:v>198</x:v>
-      </x:c>
       <x:c r="G241" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H241" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I241" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J241" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K241" s="0" t="n">
-        <x:v>9300000</x:v>
+        <x:v>29215309</x:v>
       </x:c>
     </x:row>
     <x:row r="242" spans="1:11">
@@ -11370,34 +11778,34 @@
         <x:v>733</x:v>
       </x:c>
       <x:c r="B242" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C242" s="0" t="s">
         <x:v>734</x:v>
       </x:c>
       <x:c r="D242" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="E242" s="0" t="s">
-        <x:v>355</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F242" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="G242" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H242" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I242" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J242" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K242" s="0" t="n">
-        <x:v>8576108</x:v>
+        <x:v>33717918</x:v>
       </x:c>
     </x:row>
     <x:row r="243" spans="1:11">
@@ -11405,19 +11813,19 @@
         <x:v>735</x:v>
       </x:c>
       <x:c r="B243" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C243" s="0" t="s">
         <x:v>736</x:v>
       </x:c>
       <x:c r="D243" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>737</x:v>
       </x:c>
       <x:c r="E243" s="0" t="s">
-        <x:v>737</x:v>
+        <x:v>738</x:v>
       </x:c>
       <x:c r="F243" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="G243" s="0" t="s">
         <x:v>17</x:v>
@@ -11426,68 +11834,68 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I243" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J243" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K243" s="0" t="n">
-        <x:v>2320388</x:v>
+        <x:v>75623754</x:v>
       </x:c>
     </x:row>
     <x:row r="244" spans="1:11">
       <x:c r="A244" s="0" t="s">
-        <x:v>738</x:v>
+        <x:v>739</x:v>
       </x:c>
       <x:c r="B244" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C244" s="0" t="s">
-        <x:v>739</x:v>
+        <x:v>740</x:v>
       </x:c>
       <x:c r="D244" s="0" t="s">
-        <x:v>123</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E244" s="0" t="s">
-        <x:v>124</x:v>
+        <x:v>741</x:v>
       </x:c>
       <x:c r="F244" s="0" t="s">
-        <x:v>263</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="G244" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H244" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I244" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="J244" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="K244" s="0" t="n">
-        <x:v>10000000</x:v>
+        <x:v>103246722</x:v>
       </x:c>
     </x:row>
     <x:row r="245" spans="1:11">
       <x:c r="A245" s="0" t="s">
-        <x:v>740</x:v>
+        <x:v>742</x:v>
       </x:c>
       <x:c r="B245" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C245" s="0" t="s">
-        <x:v>741</x:v>
+        <x:v>743</x:v>
       </x:c>
       <x:c r="D245" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>115</x:v>
       </x:c>
       <x:c r="E245" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>744</x:v>
       </x:c>
       <x:c r="F245" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="G245" s="0" t="s">
         <x:v>17</x:v>
@@ -11496,68 +11904,68 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I245" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J245" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K245" s="0" t="n">
-        <x:v>9000000</x:v>
+        <x:v>107449716</x:v>
       </x:c>
     </x:row>
     <x:row r="246" spans="1:11">
       <x:c r="A246" s="0" t="s">
-        <x:v>742</x:v>
+        <x:v>745</x:v>
       </x:c>
       <x:c r="B246" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C246" s="0" t="s">
-        <x:v>743</x:v>
+        <x:v>746</x:v>
       </x:c>
       <x:c r="D246" s="0" t="s">
-        <x:v>104</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E246" s="0" t="s">
-        <x:v>105</x:v>
+        <x:v>747</x:v>
       </x:c>
       <x:c r="F246" s="0" t="s">
-        <x:v>312</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="G246" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H246" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I246" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J246" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K246" s="0" t="n">
-        <x:v>8904000</x:v>
+        <x:v>25000000</x:v>
       </x:c>
     </x:row>
     <x:row r="247" spans="1:11">
       <x:c r="A247" s="0" t="s">
-        <x:v>744</x:v>
+        <x:v>748</x:v>
       </x:c>
       <x:c r="B247" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C247" s="0" t="s">
-        <x:v>745</x:v>
+        <x:v>749</x:v>
       </x:c>
       <x:c r="D247" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E247" s="0" t="s">
-        <x:v>382</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="F247" s="0" t="s">
-        <x:v>331</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="G247" s="0" t="s">
         <x:v>17</x:v>
@@ -11566,103 +11974,103 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I247" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="J247" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K247" s="0" t="n">
-        <x:v>8858316</x:v>
+        <x:v>162152791</x:v>
       </x:c>
     </x:row>
     <x:row r="248" spans="1:11">
       <x:c r="A248" s="0" t="s">
-        <x:v>746</x:v>
+        <x:v>751</x:v>
       </x:c>
       <x:c r="B248" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C248" s="0" t="s">
-        <x:v>747</x:v>
+        <x:v>752</x:v>
       </x:c>
       <x:c r="D248" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>753</x:v>
       </x:c>
       <x:c r="E248" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F248" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="G248" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H248" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I248" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J248" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="K248" s="0" t="n">
-        <x:v>9681340</x:v>
+        <x:v>27112268.52</x:v>
       </x:c>
     </x:row>
     <x:row r="249" spans="1:11">
       <x:c r="A249" s="0" t="s">
-        <x:v>748</x:v>
+        <x:v>754</x:v>
       </x:c>
       <x:c r="B249" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C249" s="0" t="s">
-        <x:v>749</x:v>
+        <x:v>755</x:v>
       </x:c>
       <x:c r="D249" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>756</x:v>
       </x:c>
       <x:c r="E249" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>757</x:v>
       </x:c>
       <x:c r="F249" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>732</x:v>
       </x:c>
       <x:c r="G249" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H249" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I249" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="J249" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K249" s="0" t="n">
-        <x:v>10000000</x:v>
+        <x:v>86805555.56</x:v>
       </x:c>
     </x:row>
     <x:row r="250" spans="1:11">
       <x:c r="A250" s="0" t="s">
-        <x:v>750</x:v>
+        <x:v>758</x:v>
       </x:c>
       <x:c r="B250" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C250" s="0" t="s">
-        <x:v>751</x:v>
+        <x:v>759</x:v>
       </x:c>
       <x:c r="D250" s="0" t="s">
-        <x:v>752</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E250" s="0" t="s">
-        <x:v>584</x:v>
+        <x:v>349</x:v>
       </x:c>
       <x:c r="F250" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G250" s="0" t="s">
         <x:v>17</x:v>
@@ -11671,33 +12079,33 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I250" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J250" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K250" s="0" t="n">
-        <x:v>9999042.27</x:v>
+        <x:v>63211141</x:v>
       </x:c>
     </x:row>
     <x:row r="251" spans="1:11">
       <x:c r="A251" s="0" t="s">
-        <x:v>753</x:v>
+        <x:v>761</x:v>
       </x:c>
       <x:c r="B251" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C251" s="0" t="s">
-        <x:v>754</x:v>
+        <x:v>762</x:v>
       </x:c>
       <x:c r="D251" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E251" s="0" t="s">
-        <x:v>755</x:v>
+        <x:v>763</x:v>
       </x:c>
       <x:c r="F251" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G251" s="0" t="s">
         <x:v>17</x:v>
@@ -11706,103 +12114,103 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I251" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J251" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K251" s="0" t="n">
-        <x:v>9250000</x:v>
+        <x:v>30902775</x:v>
       </x:c>
     </x:row>
     <x:row r="252" spans="1:11">
       <x:c r="A252" s="0" t="s">
-        <x:v>756</x:v>
+        <x:v>764</x:v>
       </x:c>
       <x:c r="B252" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C252" s="0" t="s">
-        <x:v>757</x:v>
+        <x:v>765</x:v>
       </x:c>
       <x:c r="D252" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>766</x:v>
       </x:c>
       <x:c r="E252" s="0" t="s">
-        <x:v>512</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="F252" s="0" t="s">
-        <x:v>259</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G252" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H252" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I252" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="J252" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K252" s="0" t="n">
-        <x:v>8854166.67</x:v>
+        <x:v>40104179</x:v>
       </x:c>
     </x:row>
     <x:row r="253" spans="1:11">
       <x:c r="A253" s="0" t="s">
-        <x:v>758</x:v>
+        <x:v>767</x:v>
       </x:c>
       <x:c r="B253" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C253" s="0" t="s">
-        <x:v>759</x:v>
+        <x:v>768</x:v>
       </x:c>
       <x:c r="D253" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E253" s="0" t="s">
+        <x:v>769</x:v>
+      </x:c>
+      <x:c r="F253" s="0" t="s">
         <x:v>760</x:v>
       </x:c>
-      <x:c r="E253" s="0" t="s">
-        <x:v>605</x:v>
-      </x:c>
-      <x:c r="F253" s="0" t="s">
-        <x:v>374</x:v>
-      </x:c>
       <x:c r="G253" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H253" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="I253" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J253" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K253" s="0" t="n">
-        <x:v>9900000</x:v>
+        <x:v>150000000</x:v>
       </x:c>
     </x:row>
     <x:row r="254" spans="1:11">
       <x:c r="A254" s="0" t="s">
-        <x:v>761</x:v>
+        <x:v>770</x:v>
       </x:c>
       <x:c r="B254" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C254" s="0" t="s">
-        <x:v>762</x:v>
+        <x:v>771</x:v>
       </x:c>
       <x:c r="D254" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E254" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>637</x:v>
       </x:c>
       <x:c r="F254" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G254" s="0" t="s">
         <x:v>17</x:v>
@@ -11811,103 +12219,103 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="I254" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="J254" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K254" s="0" t="n">
-        <x:v>10000000</x:v>
+        <x:v>150000000</x:v>
       </x:c>
     </x:row>
     <x:row r="255" spans="1:11">
       <x:c r="A255" s="0" t="s">
-        <x:v>763</x:v>
+        <x:v>772</x:v>
       </x:c>
       <x:c r="B255" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C255" s="0" t="s">
-        <x:v>764</x:v>
+        <x:v>773</x:v>
       </x:c>
       <x:c r="D255" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E255" s="0" t="s">
-        <x:v>765</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="F255" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G255" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H255" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I255" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J255" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="K255" s="0" t="n">
-        <x:v>10000000</x:v>
+        <x:v>80000000</x:v>
       </x:c>
     </x:row>
     <x:row r="256" spans="1:11">
       <x:c r="A256" s="0" t="s">
-        <x:v>766</x:v>
+        <x:v>774</x:v>
       </x:c>
       <x:c r="B256" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C256" s="0" t="s">
-        <x:v>767</x:v>
+        <x:v>775</x:v>
       </x:c>
       <x:c r="D256" s="0" t="s">
-        <x:v>768</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E256" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>162</x:v>
       </x:c>
       <x:c r="F256" s="0" t="s">
-        <x:v>389</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G256" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H256" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="I256" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J256" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="K256" s="0" t="n">
-        <x:v>2600000</x:v>
+        <x:v>200000000</x:v>
       </x:c>
     </x:row>
     <x:row r="257" spans="1:11">
       <x:c r="A257" s="0" t="s">
-        <x:v>769</x:v>
+        <x:v>776</x:v>
       </x:c>
       <x:c r="B257" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C257" s="0" t="s">
-        <x:v>770</x:v>
+        <x:v>777</x:v>
       </x:c>
       <x:c r="D257" s="0" t="s">
-        <x:v>315</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E257" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>361</x:v>
       </x:c>
       <x:c r="F257" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G257" s="0" t="s">
         <x:v>17</x:v>
@@ -11919,246 +12327,246 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="J257" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K257" s="0" t="n">
-        <x:v>9994500</x:v>
+        <x:v>36158230</x:v>
       </x:c>
     </x:row>
     <x:row r="258" spans="1:11">
       <x:c r="A258" s="0" t="s">
-        <x:v>772</x:v>
+        <x:v>778</x:v>
       </x:c>
       <x:c r="B258" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C258" s="0" t="s">
-        <x:v>773</x:v>
+        <x:v>779</x:v>
       </x:c>
       <x:c r="D258" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E258" s="0" t="s">
-        <x:v>467</x:v>
+        <x:v>780</x:v>
       </x:c>
       <x:c r="F258" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G258" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H258" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I258" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J258" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K258" s="0" t="n">
-        <x:v>10000000</x:v>
+        <x:v>63413756</x:v>
       </x:c>
     </x:row>
     <x:row r="259" spans="1:11">
       <x:c r="A259" s="0" t="s">
-        <x:v>774</x:v>
+        <x:v>781</x:v>
       </x:c>
       <x:c r="B259" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C259" s="0" t="s">
-        <x:v>775</x:v>
+        <x:v>782</x:v>
       </x:c>
       <x:c r="D259" s="0" t="s">
-        <x:v>209</x:v>
+        <x:v>536</x:v>
       </x:c>
       <x:c r="E259" s="0" t="s">
-        <x:v>412</x:v>
+        <x:v>783</x:v>
       </x:c>
       <x:c r="F259" s="0" t="s">
-        <x:v>418</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G259" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H259" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I259" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J259" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K259" s="0" t="n">
-        <x:v>9975000</x:v>
+        <x:v>40751264</x:v>
       </x:c>
     </x:row>
     <x:row r="260" spans="1:11">
       <x:c r="A260" s="0" t="s">
-        <x:v>776</x:v>
+        <x:v>784</x:v>
       </x:c>
       <x:c r="B260" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C260" s="0" t="s">
-        <x:v>777</x:v>
+        <x:v>785</x:v>
       </x:c>
       <x:c r="D260" s="0" t="s">
-        <x:v>778</x:v>
+        <x:v>786</x:v>
       </x:c>
       <x:c r="E260" s="0" t="s">
-        <x:v>492</x:v>
+        <x:v>787</x:v>
       </x:c>
       <x:c r="F260" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G260" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H260" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I260" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="J260" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K260" s="0" t="n">
-        <x:v>8583350</x:v>
+        <x:v>26736295</x:v>
       </x:c>
     </x:row>
     <x:row r="261" spans="1:11">
       <x:c r="A261" s="0" t="s">
-        <x:v>779</x:v>
+        <x:v>788</x:v>
       </x:c>
       <x:c r="B261" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C261" s="0" t="s">
-        <x:v>780</x:v>
+        <x:v>789</x:v>
       </x:c>
       <x:c r="D261" s="0" t="s">
-        <x:v>480</x:v>
+        <x:v>790</x:v>
       </x:c>
       <x:c r="E261" s="0" t="s">
-        <x:v>336</x:v>
+        <x:v>791</x:v>
       </x:c>
       <x:c r="F261" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G261" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H261" s="0" t="s">
         <x:v>56</x:v>
       </x:c>
       <x:c r="I261" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J261" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="K261" s="0" t="n">
-        <x:v>9976222</x:v>
+        <x:v>231481481.48</x:v>
       </x:c>
     </x:row>
     <x:row r="262" spans="1:11">
       <x:c r="A262" s="0" t="s">
-        <x:v>781</x:v>
+        <x:v>792</x:v>
       </x:c>
       <x:c r="B262" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C262" s="0" t="s">
-        <x:v>782</x:v>
+        <x:v>793</x:v>
       </x:c>
       <x:c r="D262" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="E262" s="0" t="s">
-        <x:v>783</x:v>
+        <x:v>210</x:v>
       </x:c>
       <x:c r="F262" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>760</x:v>
       </x:c>
       <x:c r="G262" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H262" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I262" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="J262" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="K262" s="0" t="n">
-        <x:v>9999455</x:v>
+        <x:v>50000000</x:v>
       </x:c>
     </x:row>
     <x:row r="263" spans="1:11">
       <x:c r="A263" s="0" t="s">
-        <x:v>784</x:v>
+        <x:v>794</x:v>
       </x:c>
       <x:c r="B263" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C263" s="0" t="s">
-        <x:v>785</x:v>
+        <x:v>795</x:v>
       </x:c>
       <x:c r="D263" s="0" t="s">
-        <x:v>786</x:v>
+        <x:v>196</x:v>
       </x:c>
       <x:c r="E263" s="0" t="s">
-        <x:v>680</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="F263" s="0" t="s">
-        <x:v>450</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="G263" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H263" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I263" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="J263" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K263" s="0" t="n">
-        <x:v>9000000</x:v>
+        <x:v>50490470.06</x:v>
       </x:c>
     </x:row>
     <x:row r="264" spans="1:11">
       <x:c r="A264" s="0" t="s">
-        <x:v>787</x:v>
+        <x:v>797</x:v>
       </x:c>
       <x:c r="B264" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C264" s="0" t="s">
-        <x:v>788</x:v>
+        <x:v>798</x:v>
       </x:c>
       <x:c r="D264" s="0" t="s">
-        <x:v>789</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E264" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>799</x:v>
       </x:c>
       <x:c r="F264" s="0" t="s">
-        <x:v>537</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="G264" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H264" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I264" s="0" t="s">
         <x:v>26</x:v>
@@ -12167,62 +12575,62 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K264" s="0" t="n">
-        <x:v>10000000</x:v>
+        <x:v>44679086</x:v>
       </x:c>
     </x:row>
     <x:row r="265" spans="1:11">
       <x:c r="A265" s="0" t="s">
-        <x:v>790</x:v>
+        <x:v>800</x:v>
       </x:c>
       <x:c r="B265" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C265" s="0" t="s">
-        <x:v>791</x:v>
+        <x:v>801</x:v>
       </x:c>
       <x:c r="D265" s="0" t="s">
-        <x:v>792</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E265" s="0" t="s">
-        <x:v>793</x:v>
+        <x:v>131</x:v>
       </x:c>
       <x:c r="F265" s="0" t="s">
-        <x:v>557</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="G265" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H265" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I265" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J265" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K265" s="0" t="n">
-        <x:v>9807800</x:v>
+        <x:v>31021730</x:v>
       </x:c>
     </x:row>
     <x:row r="266" spans="1:11">
       <x:c r="A266" s="0" t="s">
-        <x:v>794</x:v>
+        <x:v>802</x:v>
       </x:c>
       <x:c r="B266" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C266" s="0" t="s">
-        <x:v>795</x:v>
+        <x:v>803</x:v>
       </x:c>
       <x:c r="D266" s="0" t="s">
-        <x:v>599</x:v>
+        <x:v>804</x:v>
       </x:c>
       <x:c r="E266" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>805</x:v>
       </x:c>
       <x:c r="F266" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="G266" s="0" t="s">
         <x:v>17</x:v>
@@ -12231,68 +12639,68 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I266" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="J266" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K266" s="0" t="n">
-        <x:v>24957990</x:v>
+        <x:v>39982375</x:v>
       </x:c>
     </x:row>
     <x:row r="267" spans="1:11">
       <x:c r="A267" s="0" t="s">
+        <x:v>806</x:v>
+      </x:c>
+      <x:c r="B267" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C267" s="0" t="s">
+        <x:v>807</x:v>
+      </x:c>
+      <x:c r="D267" s="0" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="E267" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="F267" s="0" t="s">
         <x:v>796</x:v>
       </x:c>
-      <x:c r="B267" s="0" t="s">
-        <x:v>731</x:v>
-      </x:c>
-      <x:c r="C267" s="0" t="s">
-        <x:v>797</x:v>
-      </x:c>
-      <x:c r="D267" s="0" t="s">
-        <x:v>536</x:v>
-      </x:c>
-      <x:c r="E267" s="0" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="F267" s="0" t="s">
-        <x:v>600</x:v>
-      </x:c>
       <x:c r="G267" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H267" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I267" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="J267" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K267" s="0" t="n">
-        <x:v>24965114</x:v>
+        <x:v>61465393</x:v>
       </x:c>
     </x:row>
     <x:row r="268" spans="1:11">
       <x:c r="A268" s="0" t="s">
-        <x:v>798</x:v>
+        <x:v>808</x:v>
       </x:c>
       <x:c r="B268" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C268" s="0" t="s">
-        <x:v>799</x:v>
+        <x:v>809</x:v>
       </x:c>
       <x:c r="D268" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="E268" s="0" t="s">
-        <x:v>765</x:v>
+        <x:v>810</x:v>
       </x:c>
       <x:c r="F268" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="G268" s="0" t="s">
         <x:v>17</x:v>
@@ -12301,208 +12709,208 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I268" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J268" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="K268" s="0" t="n">
-        <x:v>8999880</x:v>
+        <x:v>250000000</x:v>
       </x:c>
     </x:row>
     <x:row r="269" spans="1:11">
       <x:c r="A269" s="0" t="s">
-        <x:v>800</x:v>
+        <x:v>811</x:v>
       </x:c>
       <x:c r="B269" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C269" s="0" t="s">
-        <x:v>801</x:v>
+        <x:v>812</x:v>
       </x:c>
       <x:c r="D269" s="0" t="s">
-        <x:v>778</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="E269" s="0" t="s">
-        <x:v>802</x:v>
+        <x:v>750</x:v>
       </x:c>
       <x:c r="F269" s="0" t="s">
-        <x:v>600</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="G269" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H269" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I269" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="J269" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K269" s="0" t="n">
-        <x:v>8896275</x:v>
+        <x:v>200000000</x:v>
       </x:c>
     </x:row>
     <x:row r="270" spans="1:11">
       <x:c r="A270" s="0" t="s">
-        <x:v>803</x:v>
+        <x:v>813</x:v>
       </x:c>
       <x:c r="B270" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C270" s="0" t="s">
-        <x:v>804</x:v>
+        <x:v>814</x:v>
       </x:c>
       <x:c r="D270" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>815</x:v>
       </x:c>
       <x:c r="E270" s="0" t="s">
-        <x:v>358</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="F270" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="G270" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H270" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I270" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="J270" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K270" s="0" t="n">
-        <x:v>24978084</x:v>
+        <x:v>70000000</x:v>
       </x:c>
     </x:row>
     <x:row r="271" spans="1:11">
       <x:c r="A271" s="0" t="s">
-        <x:v>805</x:v>
+        <x:v>816</x:v>
       </x:c>
       <x:c r="B271" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C271" s="0" t="s">
-        <x:v>806</x:v>
+        <x:v>817</x:v>
       </x:c>
       <x:c r="D271" s="0" t="s">
-        <x:v>807</x:v>
+        <x:v>818</x:v>
       </x:c>
       <x:c r="E271" s="0" t="s">
-        <x:v>311</x:v>
+        <x:v>819</x:v>
       </x:c>
       <x:c r="F271" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="G271" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H271" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="I271" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="J271" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="K271" s="0" t="n">
-        <x:v>9388923</x:v>
+        <x:v>36000000</x:v>
       </x:c>
     </x:row>
     <x:row r="272" spans="1:11">
       <x:c r="A272" s="0" t="s">
-        <x:v>808</x:v>
+        <x:v>820</x:v>
       </x:c>
       <x:c r="B272" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C272" s="0" t="s">
-        <x:v>809</x:v>
+        <x:v>821</x:v>
       </x:c>
       <x:c r="D272" s="0" t="s">
-        <x:v>810</x:v>
+        <x:v>822</x:v>
       </x:c>
       <x:c r="E272" s="0" t="s">
-        <x:v>545</x:v>
+        <x:v>823</x:v>
       </x:c>
       <x:c r="F272" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="G272" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H272" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I272" s="0" t="s">
         <x:v>629</x:v>
       </x:c>
       <x:c r="J272" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="K272" s="0" t="n">
-        <x:v>9387720</x:v>
+        <x:v>40000000</x:v>
       </x:c>
     </x:row>
     <x:row r="273" spans="1:11">
       <x:c r="A273" s="0" t="s">
-        <x:v>811</x:v>
+        <x:v>824</x:v>
       </x:c>
       <x:c r="B273" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C273" s="0" t="s">
-        <x:v>812</x:v>
+        <x:v>825</x:v>
       </x:c>
       <x:c r="D273" s="0" t="s">
-        <x:v>253</x:v>
+        <x:v>649</x:v>
       </x:c>
       <x:c r="E273" s="0" t="s">
-        <x:v>813</x:v>
+        <x:v>453</x:v>
       </x:c>
       <x:c r="F273" s="0" t="s">
-        <x:v>621</x:v>
+        <x:v>796</x:v>
       </x:c>
       <x:c r="G273" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H273" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I273" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>629</x:v>
       </x:c>
       <x:c r="J273" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="K273" s="0" t="n">
-        <x:v>15094264</x:v>
+        <x:v>295000000</x:v>
       </x:c>
     </x:row>
     <x:row r="274" spans="1:11">
       <x:c r="A274" s="0" t="s">
-        <x:v>814</x:v>
+        <x:v>826</x:v>
       </x:c>
       <x:c r="B274" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C274" s="0" t="s">
-        <x:v>815</x:v>
+        <x:v>828</x:v>
       </x:c>
       <x:c r="D274" s="0" t="s">
-        <x:v>816</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E274" s="0" t="s">
-        <x:v>817</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F274" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="G274" s="0" t="s">
         <x:v>17</x:v>
@@ -12511,33 +12919,33 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I274" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J274" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K274" s="0" t="n">
-        <x:v>12512509</x:v>
+        <x:v>9300000</x:v>
       </x:c>
     </x:row>
     <x:row r="275" spans="1:11">
       <x:c r="A275" s="0" t="s">
-        <x:v>818</x:v>
+        <x:v>829</x:v>
       </x:c>
       <x:c r="B275" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C275" s="0" t="s">
-        <x:v>819</x:v>
+        <x:v>830</x:v>
       </x:c>
       <x:c r="D275" s="0" t="s">
-        <x:v>201</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E275" s="0" t="s">
-        <x:v>316</x:v>
+        <x:v>355</x:v>
       </x:c>
       <x:c r="F275" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G275" s="0" t="s">
         <x:v>17</x:v>
@@ -12546,33 +12954,33 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I275" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J275" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K275" s="0" t="n">
-        <x:v>25000000</x:v>
+        <x:v>8576108</x:v>
       </x:c>
     </x:row>
     <x:row r="276" spans="1:11">
       <x:c r="A276" s="0" t="s">
-        <x:v>820</x:v>
+        <x:v>831</x:v>
       </x:c>
       <x:c r="B276" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C276" s="0" t="s">
-        <x:v>821</x:v>
+        <x:v>832</x:v>
       </x:c>
       <x:c r="D276" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E276" s="0" t="s">
-        <x:v>813</x:v>
+        <x:v>833</x:v>
       </x:c>
       <x:c r="F276" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G276" s="0" t="s">
         <x:v>17</x:v>
@@ -12581,68 +12989,68 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I276" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J276" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K276" s="0" t="n">
-        <x:v>25000000</x:v>
+        <x:v>2320388</x:v>
       </x:c>
     </x:row>
     <x:row r="277" spans="1:11">
       <x:c r="A277" s="0" t="s">
-        <x:v>822</x:v>
+        <x:v>834</x:v>
       </x:c>
       <x:c r="B277" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C277" s="0" t="s">
-        <x:v>823</x:v>
+        <x:v>835</x:v>
       </x:c>
       <x:c r="D277" s="0" t="s">
-        <x:v>694</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="E277" s="0" t="s">
-        <x:v>162</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="F277" s="0" t="s">
-        <x:v>653</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="G277" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
       <x:c r="H277" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="I277" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="J277" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="K277" s="0" t="n">
-        <x:v>24500000</x:v>
+        <x:v>10000000</x:v>
       </x:c>
     </x:row>
     <x:row r="278" spans="1:11">
       <x:c r="A278" s="0" t="s">
-        <x:v>824</x:v>
+        <x:v>836</x:v>
       </x:c>
       <x:c r="B278" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C278" s="0" t="s">
-        <x:v>825</x:v>
+        <x:v>837</x:v>
       </x:c>
       <x:c r="D278" s="0" t="s">
-        <x:v>826</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E278" s="0" t="s">
-        <x:v>178</x:v>
+        <x:v>545</x:v>
       </x:c>
       <x:c r="F278" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="G278" s="0" t="s">
         <x:v>17</x:v>
@@ -12651,33 +13059,33 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I278" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="J278" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K278" s="0" t="n">
-        <x:v>10000000</x:v>
+        <x:v>9000000</x:v>
       </x:c>
     </x:row>
     <x:row r="279" spans="1:11">
       <x:c r="A279" s="0" t="s">
+        <x:v>838</x:v>
+      </x:c>
+      <x:c r="B279" s="0" t="s">
         <x:v>827</x:v>
       </x:c>
-      <x:c r="B279" s="0" t="s">
-        <x:v>731</x:v>
-      </x:c>
       <x:c r="C279" s="0" t="s">
-        <x:v>828</x:v>
+        <x:v>839</x:v>
       </x:c>
       <x:c r="D279" s="0" t="s">
-        <x:v>174</x:v>
+        <x:v>104</x:v>
       </x:c>
       <x:c r="E279" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>105</x:v>
       </x:c>
       <x:c r="F279" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="G279" s="0" t="s">
         <x:v>17</x:v>
@@ -12692,27 +13100,27 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K279" s="0" t="n">
-        <x:v>8777141</x:v>
+        <x:v>8904000</x:v>
       </x:c>
     </x:row>
     <x:row r="280" spans="1:11">
       <x:c r="A280" s="0" t="s">
-        <x:v>829</x:v>
+        <x:v>840</x:v>
       </x:c>
       <x:c r="B280" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C280" s="0" t="s">
-        <x:v>830</x:v>
+        <x:v>841</x:v>
       </x:c>
       <x:c r="D280" s="0" t="s">
-        <x:v>831</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E280" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>382</x:v>
       </x:c>
       <x:c r="F280" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>331</x:v>
       </x:c>
       <x:c r="G280" s="0" t="s">
         <x:v>17</x:v>
@@ -12727,27 +13135,27 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K280" s="0" t="n">
-        <x:v>8650000</x:v>
+        <x:v>8858316</x:v>
       </x:c>
     </x:row>
     <x:row r="281" spans="1:11">
       <x:c r="A281" s="0" t="s">
-        <x:v>832</x:v>
+        <x:v>842</x:v>
       </x:c>
       <x:c r="B281" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C281" s="0" t="s">
-        <x:v>833</x:v>
+        <x:v>843</x:v>
       </x:c>
       <x:c r="D281" s="0" t="s">
-        <x:v>196</x:v>
+        <x:v>599</x:v>
       </x:c>
       <x:c r="E281" s="0" t="s">
-        <x:v>834</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F281" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="G281" s="0" t="s">
         <x:v>17</x:v>
@@ -12756,33 +13164,33 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="I281" s="0" t="s">
-        <x:v>629</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J281" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K281" s="0" t="n">
-        <x:v>24031250</x:v>
+        <x:v>9681340</x:v>
       </x:c>
     </x:row>
     <x:row r="282" spans="1:11">
       <x:c r="A282" s="0" t="s">
-        <x:v>835</x:v>
+        <x:v>844</x:v>
       </x:c>
       <x:c r="B282" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C282" s="0" t="s">
-        <x:v>836</x:v>
+        <x:v>845</x:v>
       </x:c>
       <x:c r="D282" s="0" t="s">
-        <x:v>536</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="E282" s="0" t="s">
-        <x:v>755</x:v>
+        <x:v>358</x:v>
       </x:c>
       <x:c r="F282" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="G282" s="0" t="s">
         <x:v>17</x:v>
@@ -12797,62 +13205,62 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K282" s="0" t="n">
-        <x:v>23500000</x:v>
+        <x:v>10000000</x:v>
       </x:c>
     </x:row>
     <x:row r="283" spans="1:11">
       <x:c r="A283" s="0" t="s">
-        <x:v>837</x:v>
+        <x:v>846</x:v>
       </x:c>
       <x:c r="B283" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C283" s="0" t="s">
-        <x:v>838</x:v>
+        <x:v>847</x:v>
       </x:c>
       <x:c r="D283" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>848</x:v>
       </x:c>
       <x:c r="E283" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>584</x:v>
       </x:c>
       <x:c r="F283" s="0" t="s">
-        <x:v>671</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="G283" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
       <x:c r="H283" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="I283" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="J283" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="K283" s="0" t="n">
-        <x:v>9427176.04</x:v>
+        <x:v>9999042.27</x:v>
       </x:c>
     </x:row>
     <x:row r="284" spans="1:11">
       <x:c r="A284" s="0" t="s">
-        <x:v>839</x:v>
+        <x:v>849</x:v>
       </x:c>
       <x:c r="B284" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C284" s="0" t="s">
-        <x:v>840</x:v>
+        <x:v>850</x:v>
       </x:c>
       <x:c r="D284" s="0" t="s">
-        <x:v>792</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="E284" s="0" t="s">
-        <x:v>841</x:v>
+        <x:v>851</x:v>
       </x:c>
       <x:c r="F284" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="G284" s="0" t="s">
         <x:v>17</x:v>
@@ -12867,27 +13275,27 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K284" s="0" t="n">
-        <x:v>9616032</x:v>
+        <x:v>9250000</x:v>
       </x:c>
     </x:row>
     <x:row r="285" spans="1:11">
       <x:c r="A285" s="0" t="s">
-        <x:v>842</x:v>
+        <x:v>852</x:v>
       </x:c>
       <x:c r="B285" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C285" s="0" t="s">
-        <x:v>843</x:v>
+        <x:v>853</x:v>
       </x:c>
       <x:c r="D285" s="0" t="s">
-        <x:v>844</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="E285" s="0" t="s">
-        <x:v>771</x:v>
+        <x:v>512</x:v>
       </x:c>
       <x:c r="F285" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="G285" s="0" t="s">
         <x:v>17</x:v>
@@ -12902,33 +13310,33 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K285" s="0" t="n">
-        <x:v>25000000</x:v>
+        <x:v>9837962.96</x:v>
       </x:c>
     </x:row>
     <x:row r="286" spans="1:11">
       <x:c r="A286" s="0" t="s">
-        <x:v>845</x:v>
+        <x:v>854</x:v>
       </x:c>
       <x:c r="B286" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C286" s="0" t="s">
-        <x:v>846</x:v>
+        <x:v>855</x:v>
       </x:c>
       <x:c r="D286" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>856</x:v>
       </x:c>
       <x:c r="E286" s="0" t="s">
-        <x:v>847</x:v>
+        <x:v>605</x:v>
       </x:c>
       <x:c r="F286" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>374</x:v>
       </x:c>
       <x:c r="G286" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H286" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="I286" s="0" t="s">
         <x:v>26</x:v>
@@ -12937,42 +13345,1792 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="K286" s="0" t="n">
-        <x:v>24994797.3</x:v>
+        <x:v>9900000</x:v>
       </x:c>
     </x:row>
     <x:row r="287" spans="1:11">
       <x:c r="A287" s="0" t="s">
-        <x:v>848</x:v>
+        <x:v>857</x:v>
       </x:c>
       <x:c r="B287" s="0" t="s">
-        <x:v>731</x:v>
+        <x:v>827</x:v>
       </x:c>
       <x:c r="C287" s="0" t="s">
-        <x:v>849</x:v>
+        <x:v>858</x:v>
       </x:c>
       <x:c r="D287" s="0" t="s">
-        <x:v>850</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="E287" s="0" t="s">
-        <x:v>86</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="F287" s="0" t="s">
-        <x:v>701</x:v>
+        <x:v>389</x:v>
       </x:c>
       <x:c r="G287" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="H287" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
       <x:c r="I287" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J287" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K287" s="0" t="n">
+        <x:v>10000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="288" spans="1:11">
+      <x:c r="A288" s="0" t="s">
+        <x:v>859</x:v>
+      </x:c>
+      <x:c r="B288" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C288" s="0" t="s">
+        <x:v>860</x:v>
+      </x:c>
+      <x:c r="D288" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E288" s="0" t="s">
+        <x:v>861</x:v>
+      </x:c>
+      <x:c r="F288" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="G288" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H288" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I288" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J288" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K288" s="0" t="n">
+        <x:v>10000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="289" spans="1:11">
+      <x:c r="A289" s="0" t="s">
+        <x:v>862</x:v>
+      </x:c>
+      <x:c r="B289" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C289" s="0" t="s">
+        <x:v>863</x:v>
+      </x:c>
+      <x:c r="D289" s="0" t="s">
+        <x:v>864</x:v>
+      </x:c>
+      <x:c r="E289" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="F289" s="0" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="G289" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H289" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I289" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J289" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K289" s="0" t="n">
+        <x:v>2600000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="290" spans="1:11">
+      <x:c r="A290" s="0" t="s">
+        <x:v>865</x:v>
+      </x:c>
+      <x:c r="B290" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C290" s="0" t="s">
+        <x:v>866</x:v>
+      </x:c>
+      <x:c r="D290" s="0" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="E290" s="0" t="s">
+        <x:v>867</x:v>
+      </x:c>
+      <x:c r="F290" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="G290" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H290" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I290" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J290" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K290" s="0" t="n">
+        <x:v>9994500</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="291" spans="1:11">
+      <x:c r="A291" s="0" t="s">
+        <x:v>868</x:v>
+      </x:c>
+      <x:c r="B291" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C291" s="0" t="s">
+        <x:v>869</x:v>
+      </x:c>
+      <x:c r="D291" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="E291" s="0" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="F291" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="G291" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H291" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I291" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J291" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K291" s="0" t="n">
+        <x:v>10000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="292" spans="1:11">
+      <x:c r="A292" s="0" t="s">
+        <x:v>870</x:v>
+      </x:c>
+      <x:c r="B292" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C292" s="0" t="s">
+        <x:v>871</x:v>
+      </x:c>
+      <x:c r="D292" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E292" s="0" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="F292" s="0" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="G292" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H292" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I292" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J292" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K292" s="0" t="n">
+        <x:v>9975000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="293" spans="1:11">
+      <x:c r="A293" s="0" t="s">
+        <x:v>872</x:v>
+      </x:c>
+      <x:c r="B293" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C293" s="0" t="s">
+        <x:v>873</x:v>
+      </x:c>
+      <x:c r="D293" s="0" t="s">
+        <x:v>874</x:v>
+      </x:c>
+      <x:c r="E293" s="0" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="F293" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="G293" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H293" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I293" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J293" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K293" s="0" t="n">
+        <x:v>8583350</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="294" spans="1:11">
+      <x:c r="A294" s="0" t="s">
+        <x:v>875</x:v>
+      </x:c>
+      <x:c r="B294" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C294" s="0" t="s">
+        <x:v>876</x:v>
+      </x:c>
+      <x:c r="D294" s="0" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="E294" s="0" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="F294" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="G294" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H294" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I294" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J294" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K294" s="0" t="n">
+        <x:v>9976222</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="295" spans="1:11">
+      <x:c r="A295" s="0" t="s">
+        <x:v>877</x:v>
+      </x:c>
+      <x:c r="B295" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C295" s="0" t="s">
+        <x:v>878</x:v>
+      </x:c>
+      <x:c r="D295" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E295" s="0" t="s">
+        <x:v>879</x:v>
+      </x:c>
+      <x:c r="F295" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="G295" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H295" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I295" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J295" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K295" s="0" t="n">
+        <x:v>9999455</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="296" spans="1:11">
+      <x:c r="A296" s="0" t="s">
+        <x:v>880</x:v>
+      </x:c>
+      <x:c r="B296" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C296" s="0" t="s">
+        <x:v>881</x:v>
+      </x:c>
+      <x:c r="D296" s="0" t="s">
+        <x:v>882</x:v>
+      </x:c>
+      <x:c r="E296" s="0" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="F296" s="0" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="G296" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H296" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I296" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J296" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K296" s="0" t="n">
+        <x:v>9000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="297" spans="1:11">
+      <x:c r="A297" s="0" t="s">
+        <x:v>883</x:v>
+      </x:c>
+      <x:c r="B297" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C297" s="0" t="s">
+        <x:v>884</x:v>
+      </x:c>
+      <x:c r="D297" s="0" t="s">
+        <x:v>885</x:v>
+      </x:c>
+      <x:c r="E297" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="F297" s="0" t="s">
+        <x:v>537</x:v>
+      </x:c>
+      <x:c r="G297" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H297" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="I297" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J297" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K297" s="0" t="n">
+        <x:v>10000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="298" spans="1:11">
+      <x:c r="A298" s="0" t="s">
+        <x:v>886</x:v>
+      </x:c>
+      <x:c r="B298" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C298" s="0" t="s">
+        <x:v>887</x:v>
+      </x:c>
+      <x:c r="D298" s="0" t="s">
+        <x:v>888</x:v>
+      </x:c>
+      <x:c r="E298" s="0" t="s">
+        <x:v>889</x:v>
+      </x:c>
+      <x:c r="F298" s="0" t="s">
+        <x:v>557</x:v>
+      </x:c>
+      <x:c r="G298" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H298" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I298" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J298" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K298" s="0" t="n">
+        <x:v>9807800</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="299" spans="1:11">
+      <x:c r="A299" s="0" t="s">
+        <x:v>890</x:v>
+      </x:c>
+      <x:c r="B299" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C299" s="0" t="s">
+        <x:v>891</x:v>
+      </x:c>
+      <x:c r="D299" s="0" t="s">
+        <x:v>599</x:v>
+      </x:c>
+      <x:c r="E299" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="F299" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="G299" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H299" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I299" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J299" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K299" s="0" t="n">
+        <x:v>24957990</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="300" spans="1:11">
+      <x:c r="A300" s="0" t="s">
+        <x:v>892</x:v>
+      </x:c>
+      <x:c r="B300" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C300" s="0" t="s">
+        <x:v>893</x:v>
+      </x:c>
+      <x:c r="D300" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="E300" s="0" t="s">
+        <x:v>158</x:v>
+      </x:c>
+      <x:c r="F300" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="G300" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H300" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I300" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J300" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K300" s="0" t="n">
+        <x:v>24965114</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="301" spans="1:11">
+      <x:c r="A301" s="0" t="s">
+        <x:v>894</x:v>
+      </x:c>
+      <x:c r="B301" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C301" s="0" t="s">
+        <x:v>895</x:v>
+      </x:c>
+      <x:c r="D301" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E301" s="0" t="s">
+        <x:v>861</x:v>
+      </x:c>
+      <x:c r="F301" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="G301" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H301" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I301" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J301" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K301" s="0" t="n">
+        <x:v>8999880</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="302" spans="1:11">
+      <x:c r="A302" s="0" t="s">
+        <x:v>896</x:v>
+      </x:c>
+      <x:c r="B302" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C302" s="0" t="s">
+        <x:v>897</x:v>
+      </x:c>
+      <x:c r="D302" s="0" t="s">
+        <x:v>874</x:v>
+      </x:c>
+      <x:c r="E302" s="0" t="s">
+        <x:v>898</x:v>
+      </x:c>
+      <x:c r="F302" s="0" t="s">
+        <x:v>600</x:v>
+      </x:c>
+      <x:c r="G302" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H302" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I302" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J302" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K302" s="0" t="n">
+        <x:v>8896275</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="303" spans="1:11">
+      <x:c r="A303" s="0" t="s">
+        <x:v>899</x:v>
+      </x:c>
+      <x:c r="B303" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C303" s="0" t="s">
+        <x:v>900</x:v>
+      </x:c>
+      <x:c r="D303" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="E303" s="0" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="F303" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="G303" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H303" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I303" s="0" t="s">
         <x:v>629</x:v>
       </x:c>
-      <x:c r="J287" s="0" t="s">
+      <x:c r="J303" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K303" s="0" t="n">
+        <x:v>24978084</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="304" spans="1:11">
+      <x:c r="A304" s="0" t="s">
+        <x:v>901</x:v>
+      </x:c>
+      <x:c r="B304" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C304" s="0" t="s">
+        <x:v>902</x:v>
+      </x:c>
+      <x:c r="D304" s="0" t="s">
+        <x:v>903</x:v>
+      </x:c>
+      <x:c r="E304" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="F304" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="G304" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H304" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I304" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J304" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K304" s="0" t="n">
+        <x:v>9388923</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="305" spans="1:11">
+      <x:c r="A305" s="0" t="s">
+        <x:v>904</x:v>
+      </x:c>
+      <x:c r="B305" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C305" s="0" t="s">
+        <x:v>905</x:v>
+      </x:c>
+      <x:c r="D305" s="0" t="s">
+        <x:v>906</x:v>
+      </x:c>
+      <x:c r="E305" s="0" t="s">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="F305" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="G305" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H305" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I305" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="J305" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K305" s="0" t="n">
+        <x:v>9387720</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="306" spans="1:11">
+      <x:c r="A306" s="0" t="s">
+        <x:v>907</x:v>
+      </x:c>
+      <x:c r="B306" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C306" s="0" t="s">
+        <x:v>908</x:v>
+      </x:c>
+      <x:c r="D306" s="0" t="s">
+        <x:v>253</x:v>
+      </x:c>
+      <x:c r="E306" s="0" t="s">
+        <x:v>909</x:v>
+      </x:c>
+      <x:c r="F306" s="0" t="s">
+        <x:v>621</x:v>
+      </x:c>
+      <x:c r="G306" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H306" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I306" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J306" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K306" s="0" t="n">
+        <x:v>15094264</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="307" spans="1:11">
+      <x:c r="A307" s="0" t="s">
+        <x:v>910</x:v>
+      </x:c>
+      <x:c r="B307" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C307" s="0" t="s">
+        <x:v>911</x:v>
+      </x:c>
+      <x:c r="D307" s="0" t="s">
+        <x:v>804</x:v>
+      </x:c>
+      <x:c r="E307" s="0" t="s">
+        <x:v>805</x:v>
+      </x:c>
+      <x:c r="F307" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="G307" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H307" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I307" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="J307" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K307" s="0" t="n">
+        <x:v>12512509</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="308" spans="1:11">
+      <x:c r="A308" s="0" t="s">
+        <x:v>912</x:v>
+      </x:c>
+      <x:c r="B308" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C308" s="0" t="s">
+        <x:v>913</x:v>
+      </x:c>
+      <x:c r="D308" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E308" s="0" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="F308" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="G308" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H308" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I308" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J308" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K308" s="0" t="n">
+        <x:v>25000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="309" spans="1:11">
+      <x:c r="A309" s="0" t="s">
+        <x:v>914</x:v>
+      </x:c>
+      <x:c r="B309" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C309" s="0" t="s">
+        <x:v>915</x:v>
+      </x:c>
+      <x:c r="D309" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="E309" s="0" t="s">
+        <x:v>909</x:v>
+      </x:c>
+      <x:c r="F309" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="G309" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H309" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I309" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J309" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K309" s="0" t="n">
+        <x:v>25000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="310" spans="1:11">
+      <x:c r="A310" s="0" t="s">
+        <x:v>916</x:v>
+      </x:c>
+      <x:c r="B310" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C310" s="0" t="s">
+        <x:v>917</x:v>
+      </x:c>
+      <x:c r="D310" s="0" t="s">
+        <x:v>694</x:v>
+      </x:c>
+      <x:c r="E310" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="F310" s="0" t="s">
+        <x:v>653</x:v>
+      </x:c>
+      <x:c r="G310" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H310" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I310" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J310" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K310" s="0" t="n">
+        <x:v>24500000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="311" spans="1:11">
+      <x:c r="A311" s="0" t="s">
+        <x:v>918</x:v>
+      </x:c>
+      <x:c r="B311" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C311" s="0" t="s">
+        <x:v>919</x:v>
+      </x:c>
+      <x:c r="D311" s="0" t="s">
+        <x:v>920</x:v>
+      </x:c>
+      <x:c r="E311" s="0" t="s">
+        <x:v>178</x:v>
+      </x:c>
+      <x:c r="F311" s="0" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="G311" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H311" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I311" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J311" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K311" s="0" t="n">
+        <x:v>10000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="312" spans="1:11">
+      <x:c r="A312" s="0" t="s">
+        <x:v>921</x:v>
+      </x:c>
+      <x:c r="B312" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C312" s="0" t="s">
+        <x:v>922</x:v>
+      </x:c>
+      <x:c r="D312" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E312" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="F312" s="0" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="G312" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H312" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I312" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J312" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K312" s="0" t="n">
+        <x:v>8777141</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="313" spans="1:11">
+      <x:c r="A313" s="0" t="s">
+        <x:v>923</x:v>
+      </x:c>
+      <x:c r="B313" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C313" s="0" t="s">
+        <x:v>924</x:v>
+      </x:c>
+      <x:c r="D313" s="0" t="s">
+        <x:v>925</x:v>
+      </x:c>
+      <x:c r="E313" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="F313" s="0" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="G313" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H313" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I313" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J313" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K313" s="0" t="n">
+        <x:v>8650000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="314" spans="1:11">
+      <x:c r="A314" s="0" t="s">
+        <x:v>926</x:v>
+      </x:c>
+      <x:c r="B314" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C314" s="0" t="s">
+        <x:v>927</x:v>
+      </x:c>
+      <x:c r="D314" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E314" s="0" t="s">
+        <x:v>928</x:v>
+      </x:c>
+      <x:c r="F314" s="0" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="G314" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H314" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I314" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="J314" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K314" s="0" t="n">
+        <x:v>26701388.89</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="315" spans="1:11">
+      <x:c r="A315" s="0" t="s">
+        <x:v>929</x:v>
+      </x:c>
+      <x:c r="B315" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C315" s="0" t="s">
+        <x:v>930</x:v>
+      </x:c>
+      <x:c r="D315" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="E315" s="0" t="s">
+        <x:v>851</x:v>
+      </x:c>
+      <x:c r="F315" s="0" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="G315" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H315" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I315" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J315" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K315" s="0" t="n">
+        <x:v>23500000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="316" spans="1:11">
+      <x:c r="A316" s="0" t="s">
+        <x:v>931</x:v>
+      </x:c>
+      <x:c r="B316" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C316" s="0" t="s">
+        <x:v>932</x:v>
+      </x:c>
+      <x:c r="D316" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E316" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F316" s="0" t="s">
+        <x:v>671</x:v>
+      </x:c>
+      <x:c r="G316" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H316" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I316" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J316" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K316" s="0" t="n">
+        <x:v>10474640.05</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="317" spans="1:11">
+      <x:c r="A317" s="0" t="s">
+        <x:v>933</x:v>
+      </x:c>
+      <x:c r="B317" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C317" s="0" t="s">
+        <x:v>934</x:v>
+      </x:c>
+      <x:c r="D317" s="0" t="s">
+        <x:v>888</x:v>
+      </x:c>
+      <x:c r="E317" s="0" t="s">
+        <x:v>935</x:v>
+      </x:c>
+      <x:c r="F317" s="0" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="G317" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H317" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I317" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J317" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K317" s="0" t="n">
+        <x:v>9616032</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="318" spans="1:11">
+      <x:c r="A318" s="0" t="s">
+        <x:v>936</x:v>
+      </x:c>
+      <x:c r="B318" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C318" s="0" t="s">
+        <x:v>937</x:v>
+      </x:c>
+      <x:c r="D318" s="0" t="s">
+        <x:v>938</x:v>
+      </x:c>
+      <x:c r="E318" s="0" t="s">
+        <x:v>867</x:v>
+      </x:c>
+      <x:c r="F318" s="0" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="G318" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H318" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I318" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J318" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K318" s="0" t="n">
+        <x:v>25000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="319" spans="1:11">
+      <x:c r="A319" s="0" t="s">
+        <x:v>939</x:v>
+      </x:c>
+      <x:c r="B319" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C319" s="0" t="s">
+        <x:v>940</x:v>
+      </x:c>
+      <x:c r="D319" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E319" s="0" t="s">
+        <x:v>941</x:v>
+      </x:c>
+      <x:c r="F319" s="0" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="G319" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H319" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I319" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J319" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K319" s="0" t="n">
+        <x:v>24994797</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="320" spans="1:11">
+      <x:c r="A320" s="0" t="s">
+        <x:v>942</x:v>
+      </x:c>
+      <x:c r="B320" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C320" s="0" t="s">
+        <x:v>943</x:v>
+      </x:c>
+      <x:c r="D320" s="0" t="s">
+        <x:v>944</x:v>
+      </x:c>
+      <x:c r="E320" s="0" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="F320" s="0" t="s">
+        <x:v>701</x:v>
+      </x:c>
+      <x:c r="G320" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H320" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I320" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="J320" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="K287" s="0" t="n">
+      <x:c r="K320" s="0" t="n">
         <x:v>25000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="321" spans="1:11">
+      <x:c r="A321" s="0" t="s">
+        <x:v>945</x:v>
+      </x:c>
+      <x:c r="B321" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C321" s="0" t="s">
+        <x:v>946</x:v>
+      </x:c>
+      <x:c r="D321" s="0" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="E321" s="0" t="s">
+        <x:v>947</x:v>
+      </x:c>
+      <x:c r="F321" s="0" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="G321" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H321" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I321" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J321" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K321" s="0" t="n">
+        <x:v>24987000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="322" spans="1:11">
+      <x:c r="A322" s="0" t="s">
+        <x:v>948</x:v>
+      </x:c>
+      <x:c r="B322" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C322" s="0" t="s">
+        <x:v>949</x:v>
+      </x:c>
+      <x:c r="D322" s="0" t="s">
+        <x:v>882</x:v>
+      </x:c>
+      <x:c r="E322" s="0" t="s">
+        <x:v>680</x:v>
+      </x:c>
+      <x:c r="F322" s="0" t="s">
+        <x:v>732</x:v>
+      </x:c>
+      <x:c r="G322" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H322" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I322" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J322" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K322" s="0" t="n">
+        <x:v>25000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="323" spans="1:11">
+      <x:c r="A323" s="0" t="s">
+        <x:v>950</x:v>
+      </x:c>
+      <x:c r="B323" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C323" s="0" t="s">
+        <x:v>951</x:v>
+      </x:c>
+      <x:c r="D323" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="E323" s="0" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="F323" s="0" t="s">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="G323" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H323" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I323" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J323" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K323" s="0" t="n">
+        <x:v>25000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="324" spans="1:11">
+      <x:c r="A324" s="0" t="s">
+        <x:v>952</x:v>
+      </x:c>
+      <x:c r="B324" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C324" s="0" t="s">
+        <x:v>953</x:v>
+      </x:c>
+      <x:c r="D324" s="0" t="s">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c r="E324" s="0" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="F324" s="0" t="s">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="G324" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H324" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I324" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J324" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K324" s="0" t="n">
+        <x:v>17893309</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="325" spans="1:11">
+      <x:c r="A325" s="0" t="s">
+        <x:v>954</x:v>
+      </x:c>
+      <x:c r="B325" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C325" s="0" t="s">
+        <x:v>955</x:v>
+      </x:c>
+      <x:c r="D325" s="0" t="s">
+        <x:v>209</x:v>
+      </x:c>
+      <x:c r="E325" s="0" t="s">
+        <x:v>956</x:v>
+      </x:c>
+      <x:c r="F325" s="0" t="s">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="G325" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H325" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I325" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J325" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K325" s="0" t="n">
+        <x:v>14750000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="326" spans="1:11">
+      <x:c r="A326" s="0" t="s">
+        <x:v>957</x:v>
+      </x:c>
+      <x:c r="B326" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C326" s="0" t="s">
+        <x:v>958</x:v>
+      </x:c>
+      <x:c r="D326" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="E326" s="0" t="s">
+        <x:v>959</x:v>
+      </x:c>
+      <x:c r="F326" s="0" t="s">
+        <x:v>760</x:v>
+      </x:c>
+      <x:c r="G326" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H326" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I326" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="J326" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K326" s="0" t="n">
+        <x:v>9000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="327" spans="1:11">
+      <x:c r="A327" s="0" t="s">
+        <x:v>960</x:v>
+      </x:c>
+      <x:c r="B327" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C327" s="0" t="s">
+        <x:v>961</x:v>
+      </x:c>
+      <x:c r="D327" s="0" t="s">
+        <x:v>906</x:v>
+      </x:c>
+      <x:c r="E327" s="0" t="s">
+        <x:v>545</x:v>
+      </x:c>
+      <x:c r="F327" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="G327" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H327" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I327" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J327" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K327" s="0" t="n">
+        <x:v>8600000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="328" spans="1:11">
+      <x:c r="A328" s="0" t="s">
+        <x:v>962</x:v>
+      </x:c>
+      <x:c r="B328" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C328" s="0" t="s">
+        <x:v>963</x:v>
+      </x:c>
+      <x:c r="D328" s="0" t="s">
+        <x:v>196</x:v>
+      </x:c>
+      <x:c r="E328" s="0" t="s">
+        <x:v>240</x:v>
+      </x:c>
+      <x:c r="F328" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="G328" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H328" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I328" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J328" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K328" s="0" t="n">
+        <x:v>24305555.56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="329" spans="1:11">
+      <x:c r="A329" s="0" t="s">
+        <x:v>964</x:v>
+      </x:c>
+      <x:c r="B329" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C329" s="0" t="s">
+        <x:v>965</x:v>
+      </x:c>
+      <x:c r="D329" s="0" t="s">
+        <x:v>536</x:v>
+      </x:c>
+      <x:c r="E329" s="0" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="F329" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="G329" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H329" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I329" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="J329" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K329" s="0" t="n">
+        <x:v>25000000</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="330" spans="1:11">
+      <x:c r="A330" s="0" t="s">
+        <x:v>966</x:v>
+      </x:c>
+      <x:c r="B330" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C330" s="0" t="s">
+        <x:v>967</x:v>
+      </x:c>
+      <x:c r="D330" s="0" t="s">
+        <x:v>968</x:v>
+      </x:c>
+      <x:c r="E330" s="0" t="s">
+        <x:v>245</x:v>
+      </x:c>
+      <x:c r="F330" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="G330" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H330" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I330" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="J330" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K330" s="0" t="n">
+        <x:v>9783456</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="331" spans="1:11">
+      <x:c r="A331" s="0" t="s">
+        <x:v>969</x:v>
+      </x:c>
+      <x:c r="B331" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C331" s="0" t="s">
+        <x:v>970</x:v>
+      </x:c>
+      <x:c r="D331" s="0" t="s">
+        <x:v>971</x:v>
+      </x:c>
+      <x:c r="E331" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F331" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="G331" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H331" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I331" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J331" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K331" s="0" t="n">
+        <x:v>9493842</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="332" spans="1:11">
+      <x:c r="A332" s="0" t="s">
+        <x:v>972</x:v>
+      </x:c>
+      <x:c r="B332" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C332" s="0" t="s">
+        <x:v>973</x:v>
+      </x:c>
+      <x:c r="D332" s="0" t="s">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="E332" s="0" t="s">
+        <x:v>716</x:v>
+      </x:c>
+      <x:c r="F332" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="G332" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H332" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I332" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J332" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K332" s="0" t="n">
+        <x:v>20221682</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="333" spans="1:11">
+      <x:c r="A333" s="0" t="s">
+        <x:v>974</x:v>
+      </x:c>
+      <x:c r="B333" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C333" s="0" t="s">
+        <x:v>975</x:v>
+      </x:c>
+      <x:c r="D333" s="0" t="s">
+        <x:v>976</x:v>
+      </x:c>
+      <x:c r="E333" s="0" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="F333" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="G333" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H333" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I333" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J333" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K333" s="0" t="n">
+        <x:v>23149717</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="334" spans="1:11">
+      <x:c r="A334" s="0" t="s">
+        <x:v>977</x:v>
+      </x:c>
+      <x:c r="B334" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C334" s="0" t="s">
+        <x:v>978</x:v>
+      </x:c>
+      <x:c r="D334" s="0" t="s">
+        <x:v>201</x:v>
+      </x:c>
+      <x:c r="E334" s="0" t="s">
+        <x:v>979</x:v>
+      </x:c>
+      <x:c r="F334" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="G334" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H334" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I334" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="J334" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K334" s="0" t="n">
+        <x:v>24526669</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="335" spans="1:11">
+      <x:c r="A335" s="0" t="s">
+        <x:v>980</x:v>
+      </x:c>
+      <x:c r="B335" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C335" s="0" t="s">
+        <x:v>981</x:v>
+      </x:c>
+      <x:c r="D335" s="0" t="s">
+        <x:v>786</x:v>
+      </x:c>
+      <x:c r="E335" s="0" t="s">
+        <x:v>982</x:v>
+      </x:c>
+      <x:c r="F335" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="G335" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="H335" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I335" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="J335" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K335" s="0" t="n">
+        <x:v>24117448</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="336" spans="1:11">
+      <x:c r="A336" s="0" t="s">
+        <x:v>983</x:v>
+      </x:c>
+      <x:c r="B336" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C336" s="0" t="s">
+        <x:v>984</x:v>
+      </x:c>
+      <x:c r="D336" s="0" t="s">
+        <x:v>694</x:v>
+      </x:c>
+      <x:c r="E336" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="F336" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="G336" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H336" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="I336" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="J336" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="K336" s="0" t="n">
+        <x:v>24997890</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="337" spans="1:11">
+      <x:c r="A337" s="0" t="s">
+        <x:v>985</x:v>
+      </x:c>
+      <x:c r="B337" s="0" t="s">
+        <x:v>827</x:v>
+      </x:c>
+      <x:c r="C337" s="0" t="s">
+        <x:v>986</x:v>
+      </x:c>
+      <x:c r="D337" s="0" t="s">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="E337" s="0" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="F337" s="0" t="s">
+        <x:v>796</x:v>
+      </x:c>
+      <x:c r="G337" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="H337" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="I337" s="0" t="s">
+        <x:v>629</x:v>
+      </x:c>
+      <x:c r="J337" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="K337" s="0" t="n">
+        <x:v>20000000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
